--- a/data/trans_camb/P43_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,77</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,12</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,72</t>
+          <t>0,0; 24,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,48</t>
+          <t>0,0; 23,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 15,97</t>
+          <t>2,37; 23,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,05; 6,26</t>
+          <t>-7,19; 8,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 15,1</t>
+          <t>-9,74; 3,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 9,2</t>
+          <t>-4,05; 13,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 10,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 8,72</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 13,12</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-35,79%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-66,7%</t>
+          <t>50,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>-40,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,9%</t>
+          <t>153,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>236,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>160,41%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>404,74%</t>
         </is>
       </c>
     </row>
@@ -725,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 467,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,10 +811,25 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,46; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,43</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 8,13</t>
+          <t>-14,14; 6,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 14,1</t>
+          <t>-12,06; 9,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 15,93</t>
+          <t>-4,24; 45,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 13,18</t>
+          <t>-6,94; 15,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 8,28</t>
+          <t>-8,07; 12,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 10,72</t>
+          <t>-6,91; 17,62</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 7,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 8,03</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 30,59</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-29,16%</t>
+          <t>-56,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>-6,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>189,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>43,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>55,07%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>123,16%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,3; 198,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,65; 333,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 224,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,84; 224,27</t>
+          <t>-68,99; 710,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,17; 132,81</t>
+          <t>-78,03; 600,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 150,67</t>
+          <t>-74,26; 877,02</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-73,56; 238,51</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-70,98; 256,2</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-31,65; 904,31</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 10,68</t>
+          <t>-10,63; 8,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 7,24</t>
+          <t>-12,7; 6,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 7,42</t>
+          <t>-6,08; 15,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 8,53</t>
+          <t>-6,22; 7,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 6,54</t>
+          <t>-6,37; 6,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 5,25</t>
+          <t>-7,33; 7,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 6,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 5,83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 8,94</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>-24,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,21%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-9,51%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26,39%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,88; 234,65</t>
+          <t>-80,44; 289,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,13; 144,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,76; 119,68</t>
+          <t>-56,58; 467,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,11; 131,53</t>
+          <t>-62,95; 188,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 90,6</t>
+          <t>-65,15; 174,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 70,97</t>
+          <t>-74,71; 196,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-53,23; 168,7</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-60,95; 141,01</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-43,44; 208,45</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8,79</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 5,45</t>
+          <t>-6,94; 7,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 2,74</t>
+          <t>-7,08; 7,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 18,35</t>
+          <t>4,28; 23,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 20,42</t>
+          <t>-6,54; 13,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 8,95</t>
+          <t>-5,87; 15,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 7,52</t>
+          <t>-5,72; 15,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 8,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 9,1</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 16,25</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-21,95%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-37,99%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>259,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>34,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>33,15%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27,07%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>87,37%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,59; 66,98</t>
+          <t>-80,09; 582,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,56; 37,04</t>
+          <t>-80,45; 575,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 124,34</t>
+          <t>19,57; 1501,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 135,07</t>
+          <t>-35,45; 145,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 71,36</t>
+          <t>-33,57; 164,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 59,85</t>
+          <t>-31,01; 168,45</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-29,21; 131,68</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-30,95; 135,77</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8,69; 248,38</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 14,22</t>
+          <t>-8,53; 11,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 11,1</t>
+          <t>-9,27; 10,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 19,09</t>
+          <t>-8,38; 12,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 17,56</t>
+          <t>-7,32; 8,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 9,31</t>
+          <t>-7,26; 8,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 9,65</t>
+          <t>-2,71; 16,99</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 8,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 6,52</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 10,81</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-13,16%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-8,98%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>172,61%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>54,85%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,09; 162,54</t>
+          <t>-66,0; 233,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-70,19; 115,89</t>
+          <t>-68,52; 219,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-63,15; 137,62</t>
+          <t>-61,31; 255,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-68,21; 114,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 66,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,13; 65,77</t>
+          <t>-69,75; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-60,61; 206,26</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-69,33; 173,41</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-36,58; 262,83</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-55,57</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-55,57</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-10,0</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-11,25; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-11,25; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,25; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-75,89; 69,43</t>
+          <t>0,0; 14,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-75,2; 80,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 7,04</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 5,85</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 0,0</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1828,37 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-12,59%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-17,99%</t>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>121,69%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1523,6 +1899,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 3,94</t>
+          <t>-3,24; 4,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,63</t>
+          <t>-3,45; 3,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,7</t>
+          <t>2,18; 15,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 7,92</t>
+          <t>-1,21; 6,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,75</t>
+          <t>-2,04; 5,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,5</t>
+          <t>-0,95; 6,7</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 4,36</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 3,53</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 8,9</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>119,28%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>39,11%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>74,7%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 42,7</t>
+          <t>-43,71; 112,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 43,72</t>
+          <t>-45,63; 99,86</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 66,39</t>
+          <t>21,98; 353,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 57,52</t>
+          <t>-17,2; 124,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 42,96</t>
+          <t>-25,29; 106,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 38,64</t>
+          <t>-12,38; 133,31</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-14,58; 87,43</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-21,34; 71,88</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 172,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
